--- a/AttackSimulationModel/control_inputs.xlsx
+++ b/AttackSimulationModel/control_inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Models\AttackSimulation\AttackSimulationModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD387AF-A825-4458-AD42-9BC2152AFC74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D6F8DC-3568-4BB4-AFB3-BA79B84B0447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24015" yWindow="135" windowWidth="23715" windowHeight="14760" xr2:uid="{29C7657B-C994-4FDC-AF96-5F6A5373ACC7}"/>
+    <workbookView xWindow="720" yWindow="255" windowWidth="23715" windowHeight="14760" xr2:uid="{29C7657B-C994-4FDC-AF96-5F6A5373ACC7}"/>
   </bookViews>
   <sheets>
     <sheet name="control_inputs" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>control_name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>node_id</t>
+  </si>
+  <si>
+    <t>control_id</t>
   </si>
 </sst>
 </file>
@@ -424,839 +427,961 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4833B6BF-0AF7-420D-AA88-6B28A843BB21}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.99909999999999999</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10200</v>
       </c>
-      <c r="F5" t="b">
+      <c r="G5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.995</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>127.2</v>
       </c>
-      <c r="F7" t="b">
+      <c r="G7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.52629999999999999</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>23</v>
       </c>
-      <c r="F11" t="b">
+      <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23">
-        <v>0.99039999999999995</v>
-      </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>18000</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>0.98799999999999999</v>
+      <c r="B24" s="1">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="E24">
-        <v>19033</v>
-      </c>
-      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>20561.07</v>
+      </c>
+      <c r="G24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="1">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27">
-        <v>0.995</v>
-      </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>127.2</v>
-      </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1">
+        <v>39</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1">
+        <v>40</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="1">
+        <v>21</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="1">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.99039999999999995</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>18000</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>0.99970000000000003</v>
+      <c r="B34" s="1">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="E34">
-        <v>20561.07</v>
-      </c>
-      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>19033</v>
+      </c>
+      <c r="G34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1">
+        <v>24</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
-      <c r="F35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1">
+        <v>25</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
-      <c r="F36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="1">
+        <v>26</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
       <c r="D37">
-        <v>0</v>
+        <v>0.995</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>127.2</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="1">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="1">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1">
+        <v>29</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
-      <c r="F40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1">
+        <v>30</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
-      <c r="F41" t="b">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
         <v>0</v>
       </c>
     </row>

--- a/AttackSimulationModel/control_inputs.xlsx
+++ b/AttackSimulationModel/control_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Models\AttackSimulation\AttackSimulationModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D6F8DC-3568-4BB4-AFB3-BA79B84B0447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF580FA2-2F49-43E8-8388-31D78818C544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="255" windowWidth="23715" windowHeight="14760" xr2:uid="{29C7657B-C994-4FDC-AF96-5F6A5373ACC7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29C7657B-C994-4FDC-AF96-5F6A5373ACC7}"/>
   </bookViews>
   <sheets>
     <sheet name="control_inputs" sheetId="1" r:id="rId1"/>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4833B6BF-0AF7-420D-AA88-6B28A843BB21}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10200</v>
+        <v>313.2</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23</v>
+        <v>30.5</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -982,13 +982,13 @@
         <v>10</v>
       </c>
       <c r="D24">
-        <v>0.99970000000000003</v>
+        <v>0.99850000000000005</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20561.07</v>
+        <v>14482.48</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
@@ -1192,10 +1192,10 @@
         <v>0.99039999999999995</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1.44E-2</v>
       </c>
       <c r="F33">
-        <v>18000</v>
+        <v>5185.71</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>19033</v>
+        <v>7453</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
